--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Rank.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Rank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\balloonbattle\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunk\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48093954-C3FD-4026-98DE-4D3D94C1977D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AC9EED-6520-41A3-9F17-5320CB814177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26760" yWindow="870" windowWidth="25935" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38910" yWindow="3510" windowWidth="14490" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rank" sheetId="5" r:id="rId1"/>
@@ -289,7 +289,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>이상점수로</t>
+          <t>미만점수로</t>
         </r>
         <r>
           <rPr>
@@ -1215,10 +1215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MinPoint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Point</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1544,6 +1540,10 @@
   <si>
     <t>랭크 보상을 지급하는 기준 포인트
 입력 값 이상일 경우 만족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxPoint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1821,9 +1821,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1850,6 +1847,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1910,10 +1910,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2181,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501F1CB2-6FE9-4CC1-BA2B-E5D43456CDCE}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2193,7 +2189,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -2237,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2255,10 +2251,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2270,16 +2266,16 @@
         <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2299,7 +2295,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0.67450980000000005</v>
@@ -2328,7 +2324,7 @@
         <v>46</v>
       </c>
       <c r="F3" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G3" s="5">
         <v>0.67450980000000005</v>
@@ -2357,7 +2353,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G4" s="5">
         <v>0.67450980000000005</v>
@@ -2386,7 +2382,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G5" s="5">
         <v>0.67450980000000005</v>
@@ -2415,7 +2411,7 @@
         <v>46</v>
       </c>
       <c r="F6" s="5">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G6" s="5">
         <v>0.67450980000000005</v>
@@ -2444,7 +2440,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="5">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G7">
         <v>0.75294130000000004</v>
@@ -2470,10 +2466,10 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="5">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="5">
         <v>0.75294130000000004</v>
@@ -2499,10 +2495,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="5">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G9" s="5">
         <v>0.75294130000000004</v>
@@ -2528,10 +2524,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="5">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="G10" s="5">
         <v>0.75294130000000004</v>
@@ -2557,10 +2553,10 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="5">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="G11" s="5">
         <v>0.75294130000000004</v>
@@ -2589,7 +2585,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="5">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="G12">
         <v>0.57647060000000006</v>
@@ -2615,10 +2611,10 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="G13" s="5">
         <v>0.57647060000000006</v>
@@ -2644,10 +2640,10 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="5">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="G14" s="5">
         <v>0.57647060000000006</v>
@@ -2673,10 +2669,10 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="5">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="G15" s="5">
         <v>0.57647060000000006</v>
@@ -2702,10 +2698,10 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="5">
-        <v>2900</v>
+        <v>3350</v>
       </c>
       <c r="G16" s="5">
         <v>0.57647060000000006</v>
@@ -2734,7 +2730,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="5">
-        <v>3350</v>
+        <v>3800</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2760,10 +2756,10 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="5">
-        <v>3800</v>
+        <v>4250</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -2789,10 +2785,10 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="5">
-        <v>4250</v>
+        <v>4700</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -2818,10 +2814,10 @@
         <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="5">
-        <v>4700</v>
+        <v>5150</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -2847,10 +2843,10 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="5">
-        <v>5150</v>
+        <v>5750</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -2879,7 +2875,7 @@
         <v>44</v>
       </c>
       <c r="F22" s="5">
-        <v>5750</v>
+        <v>6350</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2905,10 +2901,10 @@
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="5">
-        <v>6350</v>
+        <v>6950</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -2934,10 +2930,10 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="5">
-        <v>6950</v>
+        <v>7550</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -2963,10 +2959,10 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="5">
-        <v>7550</v>
+        <v>8150</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
@@ -2992,10 +2988,10 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="5">
-        <v>8150</v>
+        <v>8900</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
@@ -3024,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="F27" s="5">
-        <v>8900</v>
+        <v>9650</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3050,10 +3046,10 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="5">
-        <v>9650</v>
+        <v>10400</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -3079,10 +3075,10 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="5">
-        <v>10400</v>
+        <v>11150</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -3108,10 +3104,10 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="5">
-        <v>11150</v>
+        <v>11900</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
@@ -3137,10 +3133,10 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="5">
-        <v>11900</v>
+        <v>12650</v>
       </c>
       <c r="G31" s="5">
         <v>1</v>
@@ -3176,7 +3172,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -4385,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>50</v>
@@ -4394,7 +4390,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4402,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>50</v>
@@ -4416,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>50</v>
@@ -4430,10 +4426,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4444,7 +4440,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -4458,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -4472,7 +4468,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>50</v>
@@ -4486,10 +4482,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4500,7 +4496,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -4514,7 +4510,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>50</v>
@@ -4528,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>50</v>
@@ -4542,10 +4538,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -4556,10 +4552,10 @@
         <v>9101</v>
       </c>
       <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
         <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
       </c>
       <c r="D14">
         <v>1002</v>
@@ -4570,10 +4566,10 @@
         <v>9102</v>
       </c>
       <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
         <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
       </c>
       <c r="D15">
         <v>1018</v>
@@ -4584,10 +4580,10 @@
         <v>9103</v>
       </c>
       <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
       </c>
       <c r="D16">
         <v>1016</v>
@@ -4598,10 +4594,10 @@
         <v>9104</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
       </c>
       <c r="D17">
         <v>1015</v>
@@ -4612,10 +4608,10 @@
         <v>9105</v>
       </c>
       <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
       </c>
       <c r="D18">
         <v>1012</v>
@@ -4626,10 +4622,10 @@
         <v>9106</v>
       </c>
       <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
       </c>
       <c r="D19">
         <v>1005</v>
@@ -4640,10 +4636,10 @@
         <v>9107</v>
       </c>
       <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
       </c>
       <c r="D20">
         <v>1003</v>
@@ -4654,10 +4650,10 @@
         <v>9108</v>
       </c>
       <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
         <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
       </c>
       <c r="D21">
         <v>1025</v>
@@ -4668,10 +4664,10 @@
         <v>9201</v>
       </c>
       <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
         <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
       </c>
       <c r="D22">
         <v>1004</v>
@@ -4682,10 +4678,10 @@
         <v>9202</v>
       </c>
       <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
       </c>
       <c r="D23">
         <v>1006</v>
@@ -4696,10 +4692,10 @@
         <v>9203</v>
       </c>
       <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
       </c>
       <c r="D24">
         <v>1010</v>
@@ -4710,10 +4706,10 @@
         <v>9204</v>
       </c>
       <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
       </c>
       <c r="D25">
         <v>1014</v>
@@ -4724,10 +4720,10 @@
         <v>9205</v>
       </c>
       <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
         <v>96</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
       </c>
       <c r="D26">
         <v>1017</v>
@@ -4738,10 +4734,10 @@
         <v>9206</v>
       </c>
       <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
         <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>99</v>
       </c>
       <c r="D27">
         <v>1019</v>
@@ -4752,10 +4748,10 @@
         <v>9301</v>
       </c>
       <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
         <v>100</v>
-      </c>
-      <c r="C28" t="s">
-        <v>101</v>
       </c>
       <c r="D28">
         <v>1007</v>
@@ -4766,10 +4762,10 @@
         <v>9302</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29">
         <v>1037</v>
@@ -4812,46 +4808,46 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
@@ -4861,162 +4857,162 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="16" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="s">
+      <c r="D14" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="16" t="s">
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="C15" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19" t="s">
+      <c r="D15" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="2:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="C15" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="16" t="s">
+      <c r="G16" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19" t="s">
+      <c r="D17" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="16" t="s">
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19" t="s">
+      <c r="D18" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
@@ -5026,139 +5022,139 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="3:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="C23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="3:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="C23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" s="20"/>
+      <c r="D24" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="19"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="E28" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="F28" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="G28" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19" t="s">
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19" t="s">
+      <c r="D31" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Rank.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Rank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunk\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\balloonbattle_2nd\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AC9EED-6520-41A3-9F17-5320CB814177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51477A7-E666-44B4-BECF-41A2AB9C1D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38910" yWindow="3510" windowWidth="14490" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31170" yWindow="2520" windowWidth="23940" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rank" sheetId="5" r:id="rId1"/>
@@ -289,7 +289,26 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>미만점수로</t>
+          <t>이하</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점수로</t>
         </r>
         <r>
           <rPr>
@@ -2177,7 +2196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501F1CB2-6FE9-4CC1-BA2B-E5D43456CDCE}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2233,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3160,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE84BE38-F9ED-43A6-8663-69A774B0D895}">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4350,8 +4371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433C6CFD-7B65-4DF7-842A-A104CCEB788C}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4558,7 +4579,7 @@
         <v>72</v>
       </c>
       <c r="D14">
-        <v>1002</v>
+        <v>100200</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4572,8 +4593,9 @@
         <v>74</v>
       </c>
       <c r="D15">
-        <v>1018</v>
-      </c>
+        <v>101800</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -4586,10 +4608,11 @@
         <v>76</v>
       </c>
       <c r="D16">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101600</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>9104</v>
       </c>
@@ -4600,10 +4623,11 @@
         <v>78</v>
       </c>
       <c r="D17">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101500</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>9105</v>
       </c>
@@ -4614,10 +4638,11 @@
         <v>80</v>
       </c>
       <c r="D18">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101200</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>9106</v>
       </c>
@@ -4628,10 +4653,11 @@
         <v>82</v>
       </c>
       <c r="D19">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100500</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>9107</v>
       </c>
@@ -4642,10 +4668,11 @@
         <v>84</v>
       </c>
       <c r="D20">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100300</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>9108</v>
       </c>
@@ -4656,10 +4683,11 @@
         <v>86</v>
       </c>
       <c r="D21">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102500</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>9201</v>
       </c>
@@ -4670,10 +4698,11 @@
         <v>88</v>
       </c>
       <c r="D22">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100400</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>9202</v>
       </c>
@@ -4684,10 +4713,11 @@
         <v>90</v>
       </c>
       <c r="D23">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100600</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>9203</v>
       </c>
@@ -4698,10 +4728,11 @@
         <v>92</v>
       </c>
       <c r="D24">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101000</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>9204</v>
       </c>
@@ -4712,10 +4743,11 @@
         <v>94</v>
       </c>
       <c r="D25">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101400</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>9205</v>
       </c>
@@ -4726,10 +4758,11 @@
         <v>96</v>
       </c>
       <c r="D26">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101700</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>9206</v>
       </c>
@@ -4740,10 +4773,11 @@
         <v>98</v>
       </c>
       <c r="D27">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101900</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>9301</v>
       </c>
@@ -4754,10 +4788,11 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100700</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>9302</v>
       </c>
@@ -4768,8 +4803,9 @@
         <v>101</v>
       </c>
       <c r="D29">
-        <v>1037</v>
-      </c>
+        <v>103700</v>
+      </c>
+      <c r="F29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Rank.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Rank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\balloonbattle_2nd\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51477A7-E666-44B4-BECF-41A2AB9C1D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8A0436-1325-4BA5-AE4A-D64EC5D62400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31170" yWindow="2520" windowWidth="23940" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1035" windowWidth="24930" windowHeight="15270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rank" sheetId="5" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="137">
   <si>
     <t>Code</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1230,44 +1230,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Point</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GoldGoods_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiaGoods_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>GoldGoods_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiaGoods_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldGoods_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiaGoods_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RankingRewardScene_Box</t>
-  </si>
-  <si>
     <t>rank_bg_bronze_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1312,36 +1278,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Port_Chick</t>
-  </si>
-  <si>
-    <t>Character_Name_Chick</t>
-  </si>
-  <si>
-    <t>Port_Macaw</t>
-  </si>
-  <si>
-    <t>Character_Name_Macaw</t>
-  </si>
-  <si>
-    <t>Port_Hummingbird</t>
-  </si>
-  <si>
-    <t>Character_Name_Hummingbird</t>
-  </si>
-  <si>
-    <t>Port_Crowtit</t>
-  </si>
-  <si>
-    <t>Character_Name_Crowtit</t>
-  </si>
-  <si>
-    <t>Port_Greenfrog</t>
-  </si>
-  <si>
-    <t>Character_Name_Greenfrog</t>
-  </si>
-  <si>
     <t>Port_Poodle</t>
   </si>
   <si>
@@ -1545,10 +1481,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RankingRewardScene_Box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>보상 명 텍스트 키 값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1564,6 +1496,48 @@
   <si>
     <t>MaxPoint</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldGoods_1</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>GoldGoods_2</t>
+  </si>
+  <si>
+    <t>GoldGoods_3</t>
+  </si>
+  <si>
+    <t>Port_Greenfrog</t>
+  </si>
+  <si>
+    <t>Character_Name_Greenfrog</t>
+  </si>
+  <si>
+    <t>Port_Greenfrog_1</t>
+  </si>
+  <si>
+    <t>Character_Name_Greenfrog01</t>
+  </si>
+  <si>
+    <t>Port_Greenfrog_2</t>
+  </si>
+  <si>
+    <t>Character_Name_Greenfrog02</t>
+  </si>
+  <si>
+    <t>Port_Greenfrog_3</t>
+  </si>
+  <si>
+    <t>Character_Name_Greenfrog03</t>
+  </si>
+  <si>
+    <t>Port_Greenfrog_4</t>
+  </si>
+  <si>
+    <t>Character_Name_Greenfrog04</t>
   </si>
 </sst>
 </file>
@@ -2196,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501F1CB2-6FE9-4CC1-BA2B-E5D43456CDCE}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2210,7 +2184,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -2272,10 +2246,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2287,16 +2261,16 @@
         <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2487,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5">
         <v>1000</v>
@@ -2516,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F9" s="5">
         <v>1200</v>
@@ -2545,7 +2519,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F10" s="5">
         <v>1400</v>
@@ -2574,7 +2548,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="5">
         <v>1700</v>
@@ -2632,7 +2606,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
         <v>2300</v>
@@ -2661,7 +2635,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F14" s="5">
         <v>2600</v>
@@ -2690,7 +2664,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5">
         <v>2900</v>
@@ -2719,7 +2693,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F16" s="5">
         <v>3350</v>
@@ -2777,7 +2751,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F18" s="5">
         <v>4250</v>
@@ -2806,7 +2780,7 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F19" s="5">
         <v>4700</v>
@@ -2835,7 +2809,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F20" s="5">
         <v>5150</v>
@@ -2864,7 +2838,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F21" s="5">
         <v>5750</v>
@@ -2922,7 +2896,7 @@
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F23" s="5">
         <v>6950</v>
@@ -2951,7 +2925,7 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F24" s="5">
         <v>7550</v>
@@ -2980,7 +2954,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F25" s="5">
         <v>8150</v>
@@ -3009,7 +2983,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F26" s="5">
         <v>8900</v>
@@ -3067,7 +3041,7 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F28" s="5">
         <v>10400</v>
@@ -3096,7 +3070,7 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F29" s="5">
         <v>11150</v>
@@ -3125,7 +3099,7 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F30" s="5">
         <v>11900</v>
@@ -3154,7 +3128,7 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F31" s="5">
         <v>12650</v>
@@ -3181,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE84BE38-F9ED-43A6-8663-69A774B0D895}">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3193,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -3212,7 +3186,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="4">
-        <v>9101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,7 +3194,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3236,7 +3210,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3252,7 +3226,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3260,7 +3234,7 @@
         <v>160</v>
       </c>
       <c r="B9" s="4">
-        <v>9102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3268,7 +3242,7 @@
         <v>180</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3276,7 +3250,7 @@
         <v>200</v>
       </c>
       <c r="B11" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3292,7 +3266,7 @@
         <v>240</v>
       </c>
       <c r="B13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3300,7 +3274,7 @@
         <v>260</v>
       </c>
       <c r="B14" s="4">
-        <v>9103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3308,7 +3282,7 @@
         <v>280</v>
       </c>
       <c r="B15" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3316,7 +3290,7 @@
         <v>300</v>
       </c>
       <c r="B16" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3332,7 +3306,7 @@
         <v>340</v>
       </c>
       <c r="B18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3340,7 +3314,7 @@
         <v>360</v>
       </c>
       <c r="B19" s="4">
-        <v>9104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3348,7 +3322,7 @@
         <v>380</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3356,7 +3330,7 @@
         <v>400</v>
       </c>
       <c r="B21" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3364,7 +3338,7 @@
         <v>440</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3372,7 +3346,7 @@
         <v>480</v>
       </c>
       <c r="B23" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3380,7 +3354,7 @@
         <v>520</v>
       </c>
       <c r="B24" s="4">
-        <v>9105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3396,7 +3370,7 @@
         <v>600</v>
       </c>
       <c r="B26" s="4">
-        <v>4</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3404,7 +3378,7 @@
         <v>640</v>
       </c>
       <c r="B27" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -3412,7 +3386,7 @@
         <v>680</v>
       </c>
       <c r="B28" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -3420,7 +3394,7 @@
         <v>720</v>
       </c>
       <c r="B29" s="4">
-        <v>9106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -3444,7 +3418,7 @@
         <v>840</v>
       </c>
       <c r="B32" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3452,7 +3426,7 @@
         <v>880</v>
       </c>
       <c r="B33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3460,7 +3434,7 @@
         <v>920</v>
       </c>
       <c r="B34" s="4">
-        <v>9107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3484,7 +3458,7 @@
         <v>1040</v>
       </c>
       <c r="B37" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -3492,7 +3466,7 @@
         <v>1080</v>
       </c>
       <c r="B38" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3500,7 +3474,7 @@
         <v>1120</v>
       </c>
       <c r="B39" s="4">
-        <v>9108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3524,7 +3498,7 @@
         <v>1240</v>
       </c>
       <c r="B42" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -3532,7 +3506,7 @@
         <v>1280</v>
       </c>
       <c r="B43" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3540,7 +3514,7 @@
         <v>1320</v>
       </c>
       <c r="B44" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3556,7 +3530,7 @@
         <v>1400</v>
       </c>
       <c r="B46" s="4">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3564,7 +3538,7 @@
         <v>1460</v>
       </c>
       <c r="B47" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -3572,7 +3546,7 @@
         <v>1520</v>
       </c>
       <c r="B48" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3580,7 +3554,7 @@
         <v>1580</v>
       </c>
       <c r="B49" s="4">
-        <v>9201</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -3588,7 +3562,7 @@
         <v>1640</v>
       </c>
       <c r="B50" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -3596,7 +3570,7 @@
         <v>1700</v>
       </c>
       <c r="B51" s="4">
-        <v>8</v>
+        <v>9102</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -3604,7 +3578,7 @@
         <v>1760</v>
       </c>
       <c r="B52" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -3620,7 +3594,7 @@
         <v>1880</v>
       </c>
       <c r="B54" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -3628,7 +3602,7 @@
         <v>1940</v>
       </c>
       <c r="B55" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3636,7 +3610,7 @@
         <v>2000</v>
       </c>
       <c r="B56" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3644,7 +3618,7 @@
         <v>2060</v>
       </c>
       <c r="B57" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -3660,7 +3634,7 @@
         <v>2180</v>
       </c>
       <c r="B59" s="4">
-        <v>9202</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3668,7 +3642,7 @@
         <v>2240</v>
       </c>
       <c r="B60" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3676,7 +3650,7 @@
         <v>2300</v>
       </c>
       <c r="B61" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -3684,7 +3658,7 @@
         <v>2360</v>
       </c>
       <c r="B62" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3700,7 +3674,7 @@
         <v>2480</v>
       </c>
       <c r="B64" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3708,7 +3682,7 @@
         <v>2540</v>
       </c>
       <c r="B65" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3716,7 +3690,7 @@
         <v>2600</v>
       </c>
       <c r="B66" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3724,7 +3698,7 @@
         <v>2660</v>
       </c>
       <c r="B67" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3740,7 +3714,7 @@
         <v>2780</v>
       </c>
       <c r="B69" s="4">
-        <v>9203</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3748,7 +3722,7 @@
         <v>2840</v>
       </c>
       <c r="B70" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3756,7 +3730,7 @@
         <v>2900</v>
       </c>
       <c r="B71" s="4">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3764,7 +3738,7 @@
         <v>2990</v>
       </c>
       <c r="B72" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3772,7 +3746,7 @@
         <v>3080</v>
       </c>
       <c r="B73" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3780,7 +3754,7 @@
         <v>3170</v>
       </c>
       <c r="B74" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3788,7 +3762,7 @@
         <v>3260</v>
       </c>
       <c r="B75" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3796,7 +3770,7 @@
         <v>3350</v>
       </c>
       <c r="B76" s="4">
-        <v>8</v>
+        <v>9103</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3804,7 +3778,7 @@
         <v>3440</v>
       </c>
       <c r="B77" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3812,7 +3786,7 @@
         <v>3530</v>
       </c>
       <c r="B78" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3820,7 +3794,7 @@
         <v>3620</v>
       </c>
       <c r="B79" s="4">
-        <v>9204</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3828,7 +3802,7 @@
         <v>3710</v>
       </c>
       <c r="B80" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3836,7 +3810,7 @@
         <v>3800</v>
       </c>
       <c r="B81" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3844,7 +3818,7 @@
         <v>3890</v>
       </c>
       <c r="B82" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3852,7 +3826,7 @@
         <v>3980</v>
       </c>
       <c r="B83" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3860,7 +3834,7 @@
         <v>4070</v>
       </c>
       <c r="B84" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3868,7 +3842,7 @@
         <v>4160</v>
       </c>
       <c r="B85" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3876,7 +3850,7 @@
         <v>4250</v>
       </c>
       <c r="B86" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3884,7 +3858,7 @@
         <v>4340</v>
       </c>
       <c r="B87" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3892,7 +3866,7 @@
         <v>4430</v>
       </c>
       <c r="B88" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3900,7 +3874,7 @@
         <v>4520</v>
       </c>
       <c r="B89" s="4">
-        <v>9205</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3908,7 +3882,7 @@
         <v>4610</v>
       </c>
       <c r="B90" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3916,7 +3890,7 @@
         <v>4700</v>
       </c>
       <c r="B91" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3924,7 +3898,7 @@
         <v>4790</v>
       </c>
       <c r="B92" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3932,7 +3906,7 @@
         <v>4880</v>
       </c>
       <c r="B93" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3940,7 +3914,7 @@
         <v>4970</v>
       </c>
       <c r="B94" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3948,7 +3922,7 @@
         <v>5060</v>
       </c>
       <c r="B95" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3956,7 +3930,7 @@
         <v>5150</v>
       </c>
       <c r="B96" s="4">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3964,7 +3938,7 @@
         <v>5270</v>
       </c>
       <c r="B97" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3972,7 +3946,7 @@
         <v>5390</v>
       </c>
       <c r="B98" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3980,7 +3954,7 @@
         <v>5510</v>
       </c>
       <c r="B99" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3988,7 +3962,7 @@
         <v>5630</v>
       </c>
       <c r="B100" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -3996,7 +3970,7 @@
         <v>5750</v>
       </c>
       <c r="B101" s="4">
-        <v>12</v>
+        <v>9104</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4004,7 +3978,7 @@
         <v>5870</v>
       </c>
       <c r="B102" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4012,7 +3986,7 @@
         <v>5990</v>
       </c>
       <c r="B103" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4020,7 +3994,7 @@
         <v>6110</v>
       </c>
       <c r="B104" s="4">
-        <v>9206</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4028,7 +4002,7 @@
         <v>6230</v>
       </c>
       <c r="B105" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4036,7 +4010,7 @@
         <v>6350</v>
       </c>
       <c r="B106" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4044,7 +4018,7 @@
         <v>6470</v>
       </c>
       <c r="B107" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -4052,7 +4026,7 @@
         <v>6590</v>
       </c>
       <c r="B108" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -4060,7 +4034,7 @@
         <v>6710</v>
       </c>
       <c r="B109" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -4068,7 +4042,7 @@
         <v>6830</v>
       </c>
       <c r="B110" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -4076,7 +4050,7 @@
         <v>6950</v>
       </c>
       <c r="B111" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -4084,7 +4058,7 @@
         <v>7070</v>
       </c>
       <c r="B112" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4092,7 +4066,7 @@
         <v>7190</v>
       </c>
       <c r="B113" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4100,7 +4074,7 @@
         <v>7310</v>
       </c>
       <c r="B114" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4108,7 +4082,7 @@
         <v>7430</v>
       </c>
       <c r="B115" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4116,7 +4090,7 @@
         <v>7550</v>
       </c>
       <c r="B116" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4124,7 +4098,7 @@
         <v>7670</v>
       </c>
       <c r="B117" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4132,7 +4106,7 @@
         <v>7790</v>
       </c>
       <c r="B118" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4140,7 +4114,7 @@
         <v>7910</v>
       </c>
       <c r="B119" s="4">
-        <v>9301</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4148,7 +4122,7 @@
         <v>8030</v>
       </c>
       <c r="B120" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4156,7 +4130,7 @@
         <v>8150</v>
       </c>
       <c r="B121" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4164,7 +4138,7 @@
         <v>8300</v>
       </c>
       <c r="B122" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4172,7 +4146,7 @@
         <v>8450</v>
       </c>
       <c r="B123" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -4180,7 +4154,7 @@
         <v>8600</v>
       </c>
       <c r="B124" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -4188,7 +4162,7 @@
         <v>8750</v>
       </c>
       <c r="B125" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -4196,7 +4170,7 @@
         <v>8900</v>
       </c>
       <c r="B126" s="4">
-        <v>12</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -4204,7 +4178,7 @@
         <v>9050</v>
       </c>
       <c r="B127" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -4212,7 +4186,7 @@
         <v>9200</v>
       </c>
       <c r="B128" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -4220,7 +4194,7 @@
         <v>9350</v>
       </c>
       <c r="B129" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -4228,7 +4202,7 @@
         <v>9500</v>
       </c>
       <c r="B130" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -4236,7 +4210,7 @@
         <v>9650</v>
       </c>
       <c r="B131" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4244,7 +4218,7 @@
         <v>9800</v>
       </c>
       <c r="B132" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -4252,7 +4226,7 @@
         <v>9950</v>
       </c>
       <c r="B133" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -4260,7 +4234,7 @@
         <v>10100</v>
       </c>
       <c r="B134" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -4268,7 +4242,7 @@
         <v>10250</v>
       </c>
       <c r="B135" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -4276,7 +4250,7 @@
         <v>10400</v>
       </c>
       <c r="B136" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -4284,7 +4258,7 @@
         <v>10550</v>
       </c>
       <c r="B137" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -4292,7 +4266,7 @@
         <v>10700</v>
       </c>
       <c r="B138" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -4300,7 +4274,7 @@
         <v>10850</v>
       </c>
       <c r="B139" s="4">
-        <v>9302</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -4308,7 +4282,7 @@
         <v>11000</v>
       </c>
       <c r="B140" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -4316,7 +4290,7 @@
         <v>11150</v>
       </c>
       <c r="B141" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -4324,7 +4298,7 @@
         <v>11300</v>
       </c>
       <c r="B142" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -4332,7 +4306,7 @@
         <v>11450</v>
       </c>
       <c r="B143" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -4340,7 +4314,7 @@
         <v>11600</v>
       </c>
       <c r="B144" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -4348,7 +4322,7 @@
         <v>11750</v>
       </c>
       <c r="B145" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -4356,7 +4330,7 @@
         <v>11900</v>
       </c>
       <c r="B146" s="4">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4369,10 +4343,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433C6CFD-7B65-4DF7-842A-A104CCEB788C}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4402,16 +4376,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4419,13 +4393,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1">
         <v>50</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4433,13 +4407,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4447,13 +4421,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4461,13 +4435,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1">
         <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4475,13 +4449,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4489,13 +4463,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1">
-        <v>30</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4503,13 +4477,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4517,13 +4491,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4531,13 +4505,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4545,267 +4519,393 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
+      <c r="B13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="5">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>9101</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="D14">
-        <v>100200</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>9102</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D15">
-        <v>101800</v>
+        <v>195</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>9103</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="D16">
-        <v>101600</v>
+        <v>225</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>9104</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17">
-        <v>101500</v>
+        <v>124</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1600</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>9105</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18">
-        <v>101200</v>
+        <v>124</v>
+      </c>
+      <c r="D18" s="5">
+        <v>220</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>9106</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19">
-        <v>100500</v>
+        <v>124</v>
+      </c>
+      <c r="D19" s="5">
+        <v>430</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>9107</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20">
-        <v>100300</v>
+        <v>124</v>
+      </c>
+      <c r="D20" s="5">
+        <v>830</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>9108</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21">
-        <v>102500</v>
+        <v>124</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1460</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>9201</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D22">
-        <v>100400</v>
+        <v>2700</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>9202</v>
+        <v>9101</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="D23">
-        <v>100600</v>
+        <v>101200</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>9203</v>
+        <v>9102</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D24">
-        <v>101000</v>
+        <v>101201</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>9204</v>
+        <v>9103</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D25">
-        <v>101400</v>
+        <v>101202</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>9205</v>
+        <v>9104</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="D26">
-        <v>101700</v>
+        <v>101203</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>9206</v>
+        <v>9105</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="D27">
-        <v>101900</v>
+        <v>101204</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>9301</v>
+        <v>9106</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>100700</v>
+        <v>100500</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <v>9107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>100300</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>9108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>102500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>9201</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>100400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>9202</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>100600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>9203</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>9204</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>101400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>9205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>101700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>9206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36">
+        <v>101900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>9301</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <v>100700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>9302</v>
       </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29">
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38">
         <v>103700</v>
       </c>
-      <c r="F29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4844,43 +4944,43 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C5" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
@@ -4893,65 +4993,65 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C9" s="11" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C11" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
@@ -4961,92 +5061,92 @@
         <v>2</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="15" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="18" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="C15" s="15" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="22" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="18" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H17" s="19"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="15" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H18" s="19"/>
     </row>
@@ -5058,37 +5158,37 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="11" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="3:8" ht="24" x14ac:dyDescent="0.3">
       <c r="C23" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="23" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
@@ -5098,37 +5198,37 @@
         <v>3</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="21" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H24" s="19"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H28" s="24"/>
     </row>
@@ -5137,27 +5237,27 @@
         <v>0</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="18" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H29" s="19"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" s="15" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="18" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
@@ -5167,27 +5267,27 @@
         <v>2</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="18" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="15" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="18" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
